--- a/biology/Zoologie/Esthemopsis/Esthemopsis.xlsx
+++ b/biology/Zoologie/Esthemopsis/Esthemopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Esthemopsis est un genre d'insectes lépidoptères de la famille des Riodinidae et de la sous-famille des Riodininae. Ils résident en Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Cajetan Freiherr von Felder et Rudolf Felder  en 1865.
 </t>
@@ -542,16 +556,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Esthemopsis aeolia Bates, 1868 ; au Brésil
 Esthemopsis alicia (Bates, 1865) ; présent au Mexique, au Guatemala et dans le Nord du Brésil.
 Esthemopsis colaxes Hewitson, 1870 ; présent au Costa Rica, en Équateur, en Colombie et au Guyana.
 Esthemopsis crystallina Brévignon &amp; Gallard, 1992 ; présent au Guyane
-Esthemopsis clonia C. &amp; R. Felder, [1865] ; présent au Mexique et en Colombie.
+Esthemopsis clonia C. &amp; R. Felder,  ; présent au Mexique et en Colombie.
 Esthemopsis jesse (Butler, 1870) ; présent au Venezuela, en Bolivie et au Brésil
 Esthemopsis macara (Grose-Smith, 1902) ; présent en Colombie.
-Esthemopsis pherephatte (Godart, [1824]) ; présent au Costa Rica, au Panama et au Brésil.
+Esthemopsis pherephatte (Godart, ) ; présent au Costa Rica, au Panama et au Brésil.
 Esthemopsis sericina (Bates, 1867) ; au Brésil</t>
         </is>
       </c>
